--- a/data/FB15k/inverse_stats_train.xlsx
+++ b/data/FB15k/inverse_stats_train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayansh/Documents/Workspace/Python/KGE_Pattern/data/FB15k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC86F7-ADAE-7D41-9C1B-80AB1A2E9135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F72C78-765A-7C4A-923B-F01769262184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26460" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="1221">
   <si>
     <t>/award/award_nominee/award_nominations./award/award_nomination/award</t>
   </si>
@@ -3677,6 +3677,12 @@
   </si>
   <si>
     <t>/metropolitan_transit/transit_system/area_served</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -3827,7 +3833,7 @@
               <c:strCache>
                 <c:ptCount val="1220"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>relation</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>/award/award_nominee/award_nominations./award/award_nomination/award</c:v>
@@ -7496,7 +7502,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1220"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13834</c:v>
@@ -12244,17 +12250,17 @@
   <dimension ref="A1:B1220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
